--- a/data/test_results.xlsx
+++ b/data/test_results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="516" windowWidth="18876" windowHeight="8940" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="H1 tag existence test" sheetId="2" r:id="rId2"/>
-    <sheet name="Currency filter test" sheetId="3" r:id="rId3"/>
-    <sheet name="Image alt attribute test" sheetId="4" r:id="rId4"/>
-    <sheet name="HTML tag sequence test" sheetId="5" r:id="rId5"/>
-    <sheet name="URL status code test" sheetId="6" r:id="rId6"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
+    <sheet r:id="rId2" sheetId="2" name="H1 tag existence test"/>
+    <sheet r:id="rId3" sheetId="3" name="Image alt attribute test"/>
+    <sheet r:id="rId4" sheetId="4" name="HTML tag sequence test"/>
+    <sheet r:id="rId5" sheetId="5" name="URL status code test"/>
+    <sheet r:id="rId6" sheetId="6" name="Currency filter test"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -36,60 +36,69 @@
     <t>https://www.alojamiento.io/property/charming-apartment-in-awesome-sevilla-with-ac-wifi/HA-61511677097</t>
   </si>
   <si>
+    <t>Currency filter test</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Pass: $ (USD)
+Pass: $ (CAD)
+Pass: € (EUR)
+Pass: £ (GBP)
+Pass: $ (AUD)
+Pass: $ (SGD)
+Pass: د.إ. (AED)
+Pass: ৳ (BDT)</t>
+  </si>
+  <si>
+    <t>URL status code test</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>2 broken links found.
+Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)
+Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7abf2d6377a0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+  </si>
+  <si>
+    <t>HTML tag sequence test</t>
+  </si>
+  <si>
+    <t>Missing tags: h5, h6</t>
+  </si>
+  <si>
+    <t>Image alt attribute test</t>
+  </si>
+  <si>
+    <t>All images have `alt` attributes.</t>
+  </si>
+  <si>
     <t>H1 tag existence test</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>H1 tag found.</t>
   </si>
-  <si>
-    <t>Currency filter test</t>
-  </si>
-  <si>
-    <t>Pass: US
-Pass: CA
-Pass: BE
-Pass: IE
-Pass: AU
-Pass: SG
-Pass: AE
-Pass: BD</t>
-  </si>
-  <si>
-    <t>Image alt attribute test</t>
-  </si>
-  <si>
-    <t>All images have `alt` attributes.</t>
-  </si>
-  <si>
-    <t>HTML tag sequence test</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Missing tags: h5, h6</t>
-  </si>
-  <si>
-    <t>URL status code test</t>
-  </si>
-  <si>
-    <t>No broken links found.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,7 +109,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -112,26 +128,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -142,10 +167,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -183,69 +208,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -269,54 +296,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -326,7 +352,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -335,7 +361,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -344,7 +370,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -352,10 +378,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -384,7 +410,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -397,13 +423,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -422,232 +447,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="72">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="111">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test_results.xlsx
+++ b/data/test_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet"/>
@@ -58,9 +58,7 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>2 broken links found.
-Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)
-Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7abf2d6377a0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+    <t>2 broken links found.Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7abf2d6377a0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
   </si>
   <si>
     <t>HTML tag sequence test</t>
@@ -86,13 +84,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -128,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -137,16 +141,22 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,23 +481,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -498,7 +508,7 @@
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -567,14 +577,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="22.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -591,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="69.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -641,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="58.5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -667,7 +677,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -691,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="111">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="107.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>

--- a/data/test_results.xlsx
+++ b/data/test_results.xlsx
@@ -1,113 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
-    <sheet r:id="rId2" sheetId="2" name="H1 tag existence test"/>
-    <sheet r:id="rId3" sheetId="3" name="Image alt attribute test"/>
-    <sheet r:id="rId4" sheetId="4" name="HTML tag sequence test"/>
-    <sheet r:id="rId5" sheetId="5" name="URL status code test"/>
-    <sheet r:id="rId6" sheetId="6" name="Currency filter test"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="H1 tag existence test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="HTML tag sequence test" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Image alt attribute test" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="URL status code test" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Currency filter test" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
-  <si>
-    <t>Page URL</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>https://www.alojamiento.io/property/charming-apartment-in-awesome-sevilla-with-ac-wifi/HA-61511677097</t>
-  </si>
-  <si>
-    <t>Currency filter test</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Pass: $ (USD)
-Pass: $ (CAD)
-Pass: € (EUR)
-Pass: £ (GBP)
-Pass: $ (AUD)
-Pass: $ (SGD)
-Pass: د.إ. (AED)
-Pass: ৳ (BDT)</t>
-  </si>
-  <si>
-    <t>URL status code test</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>2 broken links found.Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7abf2d6377a0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
-  </si>
-  <si>
-    <t>HTML tag sequence test</t>
-  </si>
-  <si>
-    <t>Missing tags: h5, h6</t>
-  </si>
-  <si>
-    <t>Image alt attribute test</t>
-  </si>
-  <si>
-    <t>All images have `alt` attributes.</t>
-  </si>
-  <si>
-    <t>H1 tag existence test</t>
-  </si>
-  <si>
-    <t>H1 tag found.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -130,45 +67,107 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -456,266 +455,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="7" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="72">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-apartment-in-awesome-sevilla-with-ac-wifi/HA-61511677097</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>H1 tag existence test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>H1 tag found.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-apartment-in-awesome-sevilla-with-ac-wifi/HA-61511677097</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HTML tag sequence test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Missing tags: h5, h6</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="22.433571428571426" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="69.75">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-apartment-in-awesome-sevilla-with-ac-wifi/HA-61511677097</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Image alt attribute test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>All images have `alt` attributes.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="58.5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-apartment-in-awesome-sevilla-with-ac-wifi/HA-61511677097</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>URL status code test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2 broken links found.
+Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7fc71d788050&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))
+Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7fc71d754b30&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="107.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-apartment-in-awesome-sevilla-with-ac-wifi/HA-61511677097</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Currency filter test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pass: $ (USD)
+Pass: $ (CAD)
+Pass: € (EUR)
+Pass: £ (GBP)
+Pass: $ (AUD)
+Pass: $ (SGD)
+Pass: د.إ. (AED)
+Pass: ৳ (BDT)</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/test_results.xlsx
+++ b/data/test_results.xlsx
@@ -7,11 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="H1 tag existence test" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="HTML tag sequence test" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Image alt attribute test" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="URL status code test" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Currency filter test" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Currency filter test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="H1 tag existence test" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="HTML tag sequence test" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Image alt attribute test" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="URL status code test" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,44 +489,198 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Page URL</t>
+          <t>Currency</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Test Case</t>
+          <t>Default Price</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Result</t>
+          <t>Tile Prices</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/charming-apartment-in-awesome-sevilla-with-ac-wifi/HA-61511677097</t>
+          <t>$ (USD)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H1 tag existence test</t>
+          <t>USD $124</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>From De $119, From De $124, From De $129, From De $194, From De $243, From De $94, From De $226, From De $126, From De $118, From De $94, From De $213, From De $103, From De $113, From De $680, From De $982, From De $84, From De $112, From De $301, From De $213, From De $162, From De $118, From De $76, From De $61, From De $405</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>H1 tag found.</t>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>$ (CAD)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CAD $175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>From De $168, From De $175, From De $182, From De $274, From De $343, From De $133, From De $319, From De $178, From De $167, From De $133, From De $301, From De $146, From De $159, From De $961, From De $1,388, From De $119, From De $158, From De $425, From De $301, From De $229, From De $167, From De $107, From De $86, From De $572</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>€ (EUR)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EUR €117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>From De €113, From De €117, From De €122, From De €183, From De €230, From De €89, From De €214, From De €119, From De €112, From De €89, From De €201, From De €98, From De €107, From De €643, From De €928, From De €79, From De €106, From De €284, From De €201, From De €153, From De €112, From De €71, From De €58, From De €383</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>£ (GBP)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GBP £97</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>From De £93, From De £97, From De £101, From De £152, From De £190, From De £74, From De £177, From De £99, From De £92, From De £73, From De £167, From De £81, From De £88, From De £532, From De £769, From De £66, From De £87, From De £236, From De £167, From De £127, From De £93, From De £59, From De £48, From De £317</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>$ (AUD)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUD $192</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>From De $185, From De $192, From De $200, From De $300, From De $377, From De $147, From De $351, From De $196, From De $183, From De $146, From De $330, From De $160, From De $175, From De $1,055, From De $1,523, From De $130, From De $173, From De $467, From De $330, From De $252, From De $184, From De $117, From De $95, From De $628</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>$ (SGD)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SGD $166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>From De $159, From De $166, From De $172, From De $259, From De $325, From De $126, From De $303, From De $169, From De $158, From De $126, From De $285, From De $138, From De $151, From De $911, From De $1,315, From De $113, From De $150, From De $403, From De $285, From De $217, From De $158, From De $101, From De $82, From De $542</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>د.إ. (AED)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AED د.إ.454</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>From De د.إ.437, From De د.إ.454, From De د.إ.473, From De د.إ.711, From De د.إ.893, From De د.إ.347, From De د.إ.830, From De د.إ.463, From De د.إ.433, From De د.إ.345, From De د.إ.782, From De د.إ.379, From De د.إ.414, From De د.إ.2,498, From De د.إ.3,607, From De د.إ.309, From De د.إ.410, From De د.إ.1,105, From De د.إ.782, From De د.إ.596, From De د.إ.435, From De د.إ.278, From De د.إ.224, From De د.إ.1,488</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>৳ (BDT)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BDT ৳14,830</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>From De ৳14,280, From De ৳14,830, From De ৳15,427, From De ৳23,207, From De ৳29,136, From De ৳11,324, From De ৳27,098, From De ৳15,126, From De ৳14,149, From De ৳11,251, From De ৳25,539, From De ৳12,385, From De ৳13,512, From De ৳81,534, From De ৳117,745, From De ৳10,080, From De ৳13,396, From De ৳36,074, From De ৳25,539, From De ৳19,446, From De ৳14,186, From De ৳9,069, From De ৳7,309, From De ৳48,561</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -579,17 +733,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HTML tag sequence test</t>
+          <t>H1 tag existence test</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Missing tags: h5, h6</t>
+          <t>H1 tag found.</t>
         </is>
       </c>
     </row>
@@ -642,17 +796,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Image alt attribute test</t>
+          <t>HTML tag sequence test</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>All images have `alt` attributes.</t>
+          <t>Missing tags: h5, h6</t>
         </is>
       </c>
     </row>
@@ -705,19 +859,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>URL status code test</t>
+          <t>Image alt attribute test</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2 broken links found.
-Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7fc71d788050&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))
-Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7fc71d754b30&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>All images have `alt` attributes.</t>
         </is>
       </c>
     </row>
@@ -770,24 +922,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Currency filter test</t>
+          <t>URL status code test</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pass: $ (USD)
-Pass: $ (CAD)
-Pass: € (EUR)
-Pass: £ (GBP)
-Pass: $ (AUD)
-Pass: $ (SGD)
-Pass: د.إ. (AED)
-Pass: ৳ (BDT)</t>
+          <t>1 broken links found.
+Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)</t>
         </is>
       </c>
     </row>

--- a/data/test_results.xlsx
+++ b/data/test_results.xlsx
@@ -933,7 +933,7 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>1 broken links found.
-Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)</t>
+Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x738cc5b08110&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>

--- a/data/test_results.xlsx
+++ b/data/test_results.xlsx
@@ -933,7 +933,7 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>1 broken links found.
-Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x738cc5b08110&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+Error accessing https://www.facebook.com/StaysTravel: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)</t>
         </is>
       </c>
     </row>
